--- a/file/数据字典.xlsx
+++ b/file/数据字典.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="877"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="877" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="中英对照" sheetId="1" r:id="rId1"/>
-    <sheet name="菜单（menu_table）" sheetId="2" r:id="rId2"/>
-    <sheet name="用户(user_table)" sheetId="3" r:id="rId3"/>
-    <sheet name="账户(account_table)" sheetId="4" r:id="rId4"/>
-    <sheet name="权限(authority _table)" sheetId="5" r:id="rId5"/>
-    <sheet name="账户权限表(account_authority_table)" sheetId="13" r:id="rId6"/>
-    <sheet name="文件(file_table)" sheetId="6" r:id="rId7"/>
-    <sheet name="文件上传(file_upload_table)" sheetId="14" r:id="rId8"/>
-    <sheet name="日志(log_table)" sheetId="7" r:id="rId9"/>
-    <sheet name="机构(organization_table)" sheetId="8" r:id="rId10"/>
-    <sheet name="部门(department_table)" sheetId="9" r:id="rId11"/>
-    <sheet name="系统(system_table)" sheetId="10" r:id="rId12"/>
-    <sheet name="系统机构部门关联表(sys_ori_dep_table)" sheetId="15" r:id="rId13"/>
-    <sheet name="字典(dictionaries_table)" sheetId="11" r:id="rId14"/>
+    <sheet name="菜单（menu）" sheetId="2" r:id="rId2"/>
+    <sheet name="用户(user)" sheetId="3" r:id="rId3"/>
+    <sheet name="账户(account)" sheetId="4" r:id="rId4"/>
+    <sheet name="权限(authority)" sheetId="5" r:id="rId5"/>
+    <sheet name="账户权限表(account_authority)" sheetId="13" r:id="rId6"/>
+    <sheet name="文件(file)" sheetId="6" r:id="rId7"/>
+    <sheet name="文件上传(file_upload)" sheetId="14" r:id="rId8"/>
+    <sheet name="日志(log)" sheetId="7" r:id="rId9"/>
+    <sheet name="机构(organization)" sheetId="8" r:id="rId10"/>
+    <sheet name="部门(department)" sheetId="9" r:id="rId11"/>
+    <sheet name="系统(system)" sheetId="10" r:id="rId12"/>
+    <sheet name="系统机构部门关联表(sys_ori_dep)" sheetId="15" r:id="rId13"/>
+    <sheet name="字典(dictionaries)" sheetId="11" r:id="rId14"/>
     <sheet name="组件(module_table)" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="148">
   <si>
     <t>序号</t>
   </si>
@@ -144,6 +144,12 @@
     <t>system</t>
   </si>
   <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
     <t>字典</t>
   </si>
   <si>
@@ -291,69 +297,75 @@
     <t>CHAR</t>
   </si>
   <si>
-    <t>字典数据（m/f）</t>
+    <t>字典数据gender</t>
   </si>
   <si>
     <t>DATETIME</t>
   </si>
   <si>
+    <t>字典数据 educationBackground</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>账号Id值</t>
+  </si>
+  <si>
+    <t>外键账号表</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>md5加密</t>
+  </si>
+  <si>
+    <t>账户Id</t>
+  </si>
+  <si>
+    <t>外键account</t>
+  </si>
+  <si>
+    <t>authority_id</t>
+  </si>
+  <si>
+    <t>权限Id</t>
+  </si>
+  <si>
+    <t>外键authority</t>
+  </si>
+  <si>
+    <t>isDel</t>
+  </si>
+  <si>
+    <t>是否已删除</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>hash值</t>
+  </si>
+  <si>
+    <t>system_id</t>
+  </si>
+  <si>
+    <t>系统Id</t>
+  </si>
+  <si>
+    <t>外键系统表Id</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>字典数据</t>
   </si>
   <si>
-    <t>accountId</t>
-  </si>
-  <si>
-    <t>账号Id值</t>
-  </si>
-  <si>
-    <t>外键账号表</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>md5加密</t>
-  </si>
-  <si>
-    <t>account_id</t>
-  </si>
-  <si>
-    <t>账户Id</t>
-  </si>
-  <si>
-    <t>authority_id</t>
-  </si>
-  <si>
-    <t>权限Id</t>
-  </si>
-  <si>
-    <t>isDel</t>
-  </si>
-  <si>
-    <t>是否已删除</t>
-  </si>
-  <si>
-    <t>kb</t>
-  </si>
-  <si>
-    <t>hash值</t>
-  </si>
-  <si>
-    <t>systemId</t>
-  </si>
-  <si>
-    <t>系统Id</t>
-  </si>
-  <si>
-    <t>外键系统表Id</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
     <t>file_id</t>
   </si>
   <si>
@@ -370,9 +382,6 @@
   </si>
   <si>
     <t>BIGINT</t>
-  </si>
-  <si>
-    <t>system_id</t>
   </si>
   <si>
     <t>外键系统表</t>
@@ -394,7 +403,7 @@
 删除：DELETE</t>
   </si>
   <si>
-    <t>data_table</t>
+    <t>data_table_name</t>
   </si>
   <si>
     <t>数据表</t>
@@ -474,9 +483,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -511,7 +520,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,22 +557,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,21 +588,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,14 +610,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,22 +640,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -647,13 +656,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,19 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,31 +752,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,13 +788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,13 +806,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,67 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,6 +930,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -931,45 +955,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1004,8 +989,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,6 +1003,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1026,149 +1035,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,15 +1208,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1215,21 +1215,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -1591,8 +1576,8 @@
   <sheetPr/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1621,71 +1606,71 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A2" s="13">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16">
+      <c r="D2" s="12"/>
+      <c r="E2" s="10">
         <v>26</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="16">
+      <c r="H2" s="12"/>
+      <c r="I2" s="10">
         <v>51</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="17"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A3" s="13">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16">
+      <c r="D3" s="12"/>
+      <c r="E3" s="10">
         <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1694,54 +1679,54 @@
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="16">
+      <c r="H3" s="12"/>
+      <c r="I3" s="10">
         <v>52</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="17"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A4" s="13">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16">
+      <c r="D4" s="12"/>
+      <c r="E4" s="10">
         <v>28</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="16">
+      <c r="H4" s="12"/>
+      <c r="I4" s="10">
         <v>53</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="17"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16">
+      <c r="D5" s="12"/>
+      <c r="E5" s="10">
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1750,26 +1735,26 @@
       <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="16">
+      <c r="H5" s="12"/>
+      <c r="I5" s="10">
         <v>54</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16">
+      <c r="D6" s="12"/>
+      <c r="E6" s="10">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1778,26 +1763,26 @@
       <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="16">
+      <c r="H6" s="12"/>
+      <c r="I6" s="10">
         <v>55</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="17"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16">
+      <c r="D7" s="12"/>
+      <c r="E7" s="10">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1806,26 +1791,26 @@
       <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="16">
+      <c r="H7" s="12"/>
+      <c r="I7" s="10">
         <v>56</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="17"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16">
+      <c r="D8" s="12"/>
+      <c r="E8" s="10">
         <v>32</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1834,26 +1819,26 @@
       <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="16">
+      <c r="H8" s="12"/>
+      <c r="I8" s="10">
         <v>57</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="17"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A9" s="13">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16">
+      <c r="D9" s="12"/>
+      <c r="E9" s="10">
         <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1862,421 +1847,425 @@
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="16">
+      <c r="H9" s="12"/>
+      <c r="I9" s="10">
         <v>58</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="17"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A10" s="13">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16">
+      <c r="D10" s="12"/>
+      <c r="E10" s="10">
         <v>34</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="16">
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="10">
         <v>59</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="17"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A11" s="13">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16">
+      <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10">
         <v>35</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="16">
+      <c r="H11" s="12"/>
+      <c r="I11" s="10">
         <v>60</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A12" s="13">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16">
+      <c r="B12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10">
         <v>36</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="16">
+      <c r="H12" s="12"/>
+      <c r="I12" s="10">
         <v>61</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="17"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A13" s="13">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16">
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10">
         <v>37</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16">
+      <c r="H13" s="12"/>
+      <c r="I13" s="10">
         <v>62</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="17"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A14" s="13">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16">
+      <c r="B14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10">
         <v>38</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="16">
+      <c r="H14" s="12"/>
+      <c r="I14" s="10">
         <v>63</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="17"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A15" s="13">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16">
+      <c r="B15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10">
         <v>39</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16">
+      <c r="H15" s="12"/>
+      <c r="I15" s="10">
         <v>64</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="17"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A16" s="13">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16">
+      <c r="B16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10">
         <v>40</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="16">
+      <c r="H16" s="12"/>
+      <c r="I16" s="10">
         <v>65</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="17"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A17" s="13">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16">
+      <c r="B17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="10">
         <v>41</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="16">
+      <c r="H17" s="12"/>
+      <c r="I17" s="10">
         <v>66</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="17"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A18" s="13">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16">
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="10">
         <v>42</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="16">
+      <c r="H18" s="12"/>
+      <c r="I18" s="10">
         <v>67</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="17"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A19" s="13">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16">
+      <c r="B19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="10">
         <v>43</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="16">
+      <c r="H19" s="12"/>
+      <c r="I19" s="10">
         <v>68</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="17"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A20" s="13">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16">
+      <c r="B20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10">
         <v>44</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16">
+      <c r="H20" s="12"/>
+      <c r="I20" s="10">
         <v>69</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="17"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A21" s="13">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16">
+        <v>61</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10">
         <v>45</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="16">
+      <c r="H21" s="12"/>
+      <c r="I21" s="10">
         <v>70</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="17"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A22" s="13">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16">
+      <c r="B22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10">
         <v>46</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="16">
+      <c r="H22" s="12"/>
+      <c r="I22" s="10">
         <v>71</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="17"/>
+      <c r="L22" s="12"/>
     </row>
     <row r="23" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A23" s="13">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16">
+      <c r="B23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="10">
         <v>47</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="16">
+      <c r="H23" s="12"/>
+      <c r="I23" s="10">
         <v>72</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="17"/>
+      <c r="L23" s="12"/>
     </row>
     <row r="24" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A24" s="13">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16">
+      <c r="B24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="10">
         <v>48</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="16">
+      <c r="H24" s="12"/>
+      <c r="I24" s="10">
         <v>73</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="17"/>
+      <c r="L24" s="12"/>
     </row>
     <row r="25" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A25" s="13">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16">
+        <v>69</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10">
         <v>49</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16">
+      <c r="H25" s="12"/>
+      <c r="I25" s="10">
         <v>74</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="17"/>
+      <c r="L25" s="12"/>
     </row>
     <row r="26" ht="14.5" customHeight="1" spans="1:12">
-      <c r="A26" s="18">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21">
+      <c r="B26" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="13">
         <v>50</v>
       </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="21">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="13">
         <v>75</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2291,7 +2280,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -2302,65 +2291,65 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2368,30 +2357,30 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2415,7 +2404,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -2427,65 +2416,65 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2493,47 +2482,47 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2569,61 +2558,61 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2632,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2655,75 +2644,75 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2754,75 +2743,75 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2853,61 +2842,61 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2915,13 +2904,13 @@
         <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2941,7 +2930,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -2953,95 +2942,95 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -3060,132 +3049,146 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="4" width="15.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2:D5 D6:D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D6 D2:D5 D7:D8">
       <formula1>"○,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3200,7 +3203,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3212,64 +3215,64 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3300,64 +3303,64 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3377,7 +3380,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -3388,61 +3391,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>78</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3450,27 +3459,27 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3479,6 +3488,10 @@
       <formula1>"○,×"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E3" location="'账户(account)'!A1" display="外键account"/>
+    <hyperlink ref="E4" location="'权限(authority)'!A1" display="外键authority"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -3501,78 +3514,78 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3580,27 +3593,27 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3627,7 +3640,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3638,109 +3651,109 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3748,47 +3761,47 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3814,7 +3827,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -3825,67 +3838,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:5">
@@ -3893,16 +3906,16 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:5">
@@ -3910,30 +3923,30 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3941,13 +3954,13 @@
         <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
